--- a/exp_09_pressure_measurement_2025_07_01/measurement_04/results/stable_data.xlsx
+++ b/exp_09_pressure_measurement_2025_07_01/measurement_04/results/stable_data.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>HPL4_cr_04</t>
+          <t>HPL4_cr_02</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>HPL4_cr_04_diff</t>
+          <t>HPL4_cr_02_diff</t>
         </is>
       </c>
     </row>
